--- a/src/test/java/utilities/Users.xlsx
+++ b/src/test/java/utilities/Users.xlsx
@@ -15,66 +15,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42" count="46">
+  <si>
+    <t>SSN</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
   <si>
     <t>Username</t>
   </si>
   <si>
+    <t>Email</t>
+  </si>
+  <si>
     <t>Password</t>
   </si>
   <si>
-    <t>Paragraph</t>
-  </si>
-  <si>
-    <t>DropDown</t>
-  </si>
-  <si>
-    <t>john_doe</t>
-  </si>
-  <si>
-    <t>Qwerty123!</t>
-  </si>
-  <si>
-    <t>John enjoys outdoor activities and loves traveling.</t>
-  </si>
-  <si>
-    <t>Drop Down Item 4</t>
-  </si>
-  <si>
-    <t>sarah.connor</t>
-  </si>
-  <si>
-    <t>Skynet@2024</t>
-  </si>
-  <si>
-    <t>A tech-savvy individual passionate about robotics.</t>
-  </si>
-  <si>
-    <t>Drop Down Item 5</t>
-  </si>
-  <si>
-    <t>emma.watson</t>
-  </si>
-  <si>
-    <t>Magic!2023</t>
-  </si>
-  <si>
-    <t>A film enthusiast who adores classic movies.</t>
-  </si>
-  <si>
-    <t>Drop Down Item 6</t>
+    <t>123-24-2341</t>
+  </si>
+  <si>
+    <t>Lina</t>
+  </si>
+  <si>
+    <t>Alhumaidi</t>
+  </si>
+  <si>
+    <t>linaxn</t>
+  </si>
+  <si>
+    <t>lina@gmail.com</t>
+  </si>
+  <si>
+    <t>Ufdv1234</t>
+  </si>
+  <si>
+    <t>987-65-4321</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>johnd</t>
+  </si>
+  <si>
+    <t>john@gmail.com</t>
+  </si>
+  <si>
+    <t>Pass1234</t>
+  </si>
+  <si>
+    <t>555-55-5555</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>marys</t>
+  </si>
+  <si>
+    <t>mary@gmail.com</t>
+  </si>
+  <si>
+    <t>Mary@123</t>
   </si>
   <si>
     <t>chef.mike</t>
-  </si>
-  <si>
-    <t>Cook!ItUp3</t>
-  </si>
-  <si>
-    <t>Loves experimenting with new recipes and flavors.</t>
-  </si>
-  <si>
-    <t>Drop Down Item 1</t>
   </si>
   <si>
     <t>Name</t>
@@ -159,25 +174,25 @@
       <charset val="0"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color rgb="FF067D17"/>
+      <name val="'JetBrains Mono',monospace"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="0"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF067D17"/>
-      <name val="'JetBrains Mono',monospace"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF191C20"/>
       <name val="Courier New"/>
       <charset val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none">
         <fgColor indexed="64"/>
@@ -190,12 +205,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -206,7 +215,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="30">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
@@ -238,14 +247,11 @@
   </cellStyleXfs>
   <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
@@ -268,10 +274,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView topLeftCell="A1" view="normal" tabSelected="1" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="topLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15"/>
@@ -282,75 +288,93 @@
     <col min="4" max="4" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -374,113 +398,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>22</v>
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>40</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>24</v>
+      <c r="C2" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>60</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>26</v>
+      <c r="C3" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>45</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>28</v>
+      <c r="C4" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>35</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>26</v>
+      <c r="C5" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>20</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>24</v>
+      <c r="C6" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>47</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>32</v>
+      <c r="C7" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B8">
         <v>32</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>28</v>
+      <c r="C8" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B9">
         <v>61</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>35</v>
+      <c r="C9" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>38</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>26</v>
+      <c r="C10" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
